--- a/Lab_1/Зависимость времени от объема задачи.xlsx
+++ b/Lab_1/Зависимость времени от объема задачи.xlsx
@@ -15,10 +15,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>В этом файле представлен график зависимости времени выполнения от объема задачи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка правильности перемножения матриц производится в файле test.py </t>
+  </si>
+  <si>
+    <t>Результат проверки записан в файле comparison_result.rxt</t>
+  </si>
+  <si>
+    <t>Исходные данные: файлы содержашие значения исходных матриц (matrix1.txt и matrix2.txt)</t>
+  </si>
+  <si>
+    <t>Выходные данные: файл со значениями результируюшей матрицы (matrix_res.txt), время выполнения и  объем задачи (time.txt)</t>
+  </si>
+  <si>
+    <t>Была написана программа на языке С++ для перемножения двух матриц (parallel_programming.cpp)</t>
+  </si>
+  <si>
+    <t>Отчет студентки группы 6313-100503D Шавариной А.А.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -47,8 +90,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -88,8 +136,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Зависимость времени выполнения
-от объема задачи</a:t>
+              <a:t>Зависимость времени выполнения от объема задачи</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -101,15 +148,51 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$1:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Лист1!$B$1:$B$9</c:f>
               <c:numCache>
@@ -141,42 +224,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>226</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$A$1:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>680</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -193,11 +240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="245424640"/>
-        <c:axId val="155873792"/>
+        <c:axId val="152599040"/>
+        <c:axId val="252073600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245424640"/>
+        <c:axId val="152599040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -207,6 +254,44 @@
           <c:tx>
             <c:rich>
               <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер матрицы</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="252073600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="252073600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -226,59 +311,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155873792"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="155873792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Размер матрицы</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.6125635810675179E-2"/>
-              <c:y val="0.29372835898923277"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245424640"/>
+        <c:crossAx val="152599040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -293,20 +332,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -611,55 +650,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>100</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>225</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>380</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>680</v>
       </c>
       <c r="B5">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>850</v>
       </c>
@@ -667,33 +736,115 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1000</v>
       </c>
       <c r="B7">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1200</v>
       </c>
       <c r="B8">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1400</v>
       </c>
       <c r="B9">
         <v>226</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
